--- a/Policy note/ProdBrut.USA.xlsx
+++ b/Policy note/ProdBrut.USA.xlsx
@@ -987,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7223436222664.318</v>
+        <v>1616116000000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -995,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>7275100338815.541</v>
+        <v>1651853000000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>7399780839561.057</v>
+        <v>1709820000000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7499345553359.641</v>
+        <v>1761831000000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>7668001187801.031</v>
+        <v>1820487000000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7724326014887.097</v>
+        <v>1852332000000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>7766623934051.803</v>
+        <v>1886558000000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7822830219202.459</v>
+        <v>1934273000000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>7915492632592.049</v>
+        <v>1988648000000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>8069318355764.361</v>
+        <v>2055909000000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>8214899229026.633</v>
+        <v>2118473000000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>8214904547809.602</v>
+        <v>2164270000000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>8241302290082.049</v>
+        <v>2202760000000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>8559721346760.357</v>
+        <v>2331633000000</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1099,7 +1099,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>8645704695975.739</v>
+        <v>2395053000000</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1107,7 +1107,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>8762136179912.965</v>
+        <v>2476949000000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1115,7 +1115,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>8777770018888.843</v>
+        <v>2526610000000</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1123,7 +1123,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>8787081271567.158</v>
+        <v>2591247000000</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1131,7 +1131,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>8852292928592.359</v>
+        <v>2667565000000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1139,7 +1139,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>8874519846350.832</v>
+        <v>2723883000000</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1147,7 +1147,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>8902371196294.361</v>
+        <v>2789842000000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1155,7 +1155,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>8718922293539.179</v>
+        <v>2797352000000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1163,7 +1163,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>8708704671173.94</v>
+        <v>2856483000000</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1171,7 +1171,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>8871149569688.375</v>
+        <v>2985557000000</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1179,7 +1179,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>9044868157446.76</v>
+        <v>3124206000000</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1187,7 +1187,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>8977918659886.383</v>
+        <v>3162532000000</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1195,7 +1195,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>9085336052852.289</v>
+        <v>3260609000000</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1203,7 +1203,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>8986363580337.369</v>
+        <v>3280818000000</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1211,7 +1211,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>8846815602246.68</v>
+        <v>3274302000000</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1219,7 +1219,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>8887187778893.871</v>
+        <v>3331972000000</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1227,7 +1227,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>8853204193061.34</v>
+        <v>3366322000000</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1235,7 +1235,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>8856693588103.064</v>
+        <v>3402561000000</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1243,7 +1243,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>8973316792496.893</v>
+        <v>3473413000000</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1251,7 +1251,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>9177655831238.846</v>
+        <v>3578848000000</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1259,7 +1259,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>9361015457232.588</v>
+        <v>3689179000000</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1267,7 +1267,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>9556392878512.844</v>
+        <v>3794706000000</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1275,7 +1275,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>9743097903318.293</v>
+        <v>3908054000000</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1283,7 +1283,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>9911492196333.324</v>
+        <v>4009601000000</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1291,7 +1291,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>10007076069214.15</v>
+        <v>4084250000000</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1299,7 +1299,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>10089197772110.72</v>
+        <v>4148551000000</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1307,7 +1307,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>10186965536672.82</v>
+        <v>4230168000000</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1315,7 +1315,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>10276693186576.54</v>
+        <v>4294887000000</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1323,7 +1323,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>10433556071671.09</v>
+        <v>4386773000000</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1331,7 +1331,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>10511132008889.34</v>
+        <v>4444094000000</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1339,7 +1339,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>10609263271952.08</v>
+        <v>4507894000000</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1347,7 +1347,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>10657058759259.46</v>
+        <v>4545340000000</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1355,7 +1355,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>10759093640026.89</v>
+        <v>4607669000000</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1363,7 +1363,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>10816801244983.94</v>
+        <v>4657627000000</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1371,7 +1371,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>10896957006440.35</v>
+        <v>4722156000000</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1379,7 +1379,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>11014511353323.49</v>
+        <v>4806160000000</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1387,7 +1387,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>11109972592146.12</v>
+        <v>4884555000000</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1395,7 +1395,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>11300650465136.95</v>
+        <v>5007994000000</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1403,7 +1403,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>11359187303361.43</v>
+        <v>5073372000000</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1411,7 +1411,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>11508411947733.1</v>
+        <v>5190036000000</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1419,7 +1419,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>11575746486959.07</v>
+        <v>5282835000000</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1427,7 +1427,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>11730084036315.3</v>
+        <v>5399509000000</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1435,7 +1435,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>11849292773101.73</v>
+        <v>5511253000000</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1443,7 +1443,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>11939665414863.83</v>
+        <v>5612463000000</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1451,7 +1451,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>12028243758755.29</v>
+        <v>5695365000000</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1459,7 +1459,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>12051943896079.49</v>
+        <v>5747237000000</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1467,7 +1467,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>12183569455171.91</v>
+        <v>5872701000000</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1475,7 +1475,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>12227712585273.02</v>
+        <v>5960028000000</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1483,7 +1483,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>12235980003763.28</v>
+        <v>6015116000000</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1491,7 +1491,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>12124552249956.59</v>
+        <v>6004733000000</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1499,7 +1499,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>12067867605699.71</v>
+        <v>6035178000000</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1507,7 +1507,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>12161952340032.58</v>
+        <v>6126862000000</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1515,7 +1515,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>12223273774961.85</v>
+        <v>6205937000000</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1523,7 +1523,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>12265979643048.47</v>
+        <v>6264540000000</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1531,7 +1531,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>12412866022981.87</v>
+        <v>6363102000000</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1539,7 +1539,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>12547392331053.87</v>
+        <v>6470763000000</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1547,7 +1547,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>12671303996126.81</v>
+        <v>6566641000000</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1555,7 +1555,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>12803579895276.24</v>
+        <v>6680803000000</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1563,7 +1563,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>12824871731443.51</v>
+        <v>6729459000000</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1571,7 +1571,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>12899507033221.31</v>
+        <v>6808939000000</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1579,7 +1579,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>12961158886629.33</v>
+        <v>6882098000000</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1587,7 +1587,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>13137460355754.89</v>
+        <v>7013738000000</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1595,7 +1595,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>13264836007402.28</v>
+        <v>7115652000000</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1603,7 +1603,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>13444664576821.12</v>
+        <v>7246931000000</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1611,7 +1611,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>13523184156177.44</v>
+        <v>7331075000000</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1619,7 +1619,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>13678235383154.68</v>
+        <v>7455288000000</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1627,7 +1627,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>13726604356140.78</v>
+        <v>7522289000000</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1635,7 +1635,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>13767642920848.1</v>
+        <v>7580997000000</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1643,7 +1643,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>13884699772423.3</v>
+        <v>7683125000000</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1651,7 +1651,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>13979081518410.91</v>
+        <v>7772586000000</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>14083844725360.78</v>
+        <v>7868468000000</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1667,7 +1667,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>14318665366143.04</v>
+        <v>8032840000000</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>14447006434111.92</v>
+        <v>8131408000000</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1683,7 +1683,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>14597216979331.46</v>
+        <v>8259771000000.001</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>14691255698300.87</v>
+        <v>8362655000000.001</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1699,7 +1699,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>14935965488251.65</v>
+        <v>8518825000000.001</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1707,7 +1707,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>15122402665982.37</v>
+        <v>8662823000000</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1715,7 +1715,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>15251633748120.93</v>
+        <v>8765906999999.999</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1723,7 +1723,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>15404737299684.97</v>
+        <v>8866480000000</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1731,7 +1731,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>15547315952688.12</v>
+        <v>8969699000000</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1739,7 +1739,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>15743126889012.74</v>
+        <v>9121097000000</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1747,7 +1747,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>15996459570776.74</v>
+        <v>9293991000000</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1755,7 +1755,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>16146544622205.78</v>
+        <v>9411682000000</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1763,7 +1763,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>16281522963944.38</v>
+        <v>9526210000000</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1771,7 +1771,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>16497331576638.32</v>
+        <v>9686626000000</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1779,7 +1779,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>16767991027414.86</v>
+        <v>9900169000000</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1787,7 +1787,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>16828879671289.17</v>
+        <v>10002179000000</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1795,7 +1795,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>17135257189714.29</v>
+        <v>10247720000000</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1803,7 +1803,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>17152761869677.67</v>
+        <v>10318165000000</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1811,7 +1811,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>17255255739877.75</v>
+        <v>10435744000000</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1819,7 +1819,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>17198541030838.42</v>
+        <v>10470231000000</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1827,7 +1827,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>17305973165046.8</v>
+        <v>10599000000000</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1835,7 +1835,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>17236599943141.12</v>
+        <v>10598020000000</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1843,7 +1843,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>17283915488906.76</v>
+        <v>10660465000000</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1851,7 +1851,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>17428633676577.83</v>
+        <v>10783500000000</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1859,7 +1859,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>17535420068067.48</v>
+        <v>10887460000000</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1867,7 +1867,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>17606552999234.29</v>
+        <v>10984040000000</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1875,7 +1875,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>17628309820278.28</v>
+        <v>11061433000000</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1883,7 +1883,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>17721269877519.43</v>
+        <v>11174129000000</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1891,7 +1891,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>17878240547512.49</v>
+        <v>11312766000000</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1899,7 +1899,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>18175509705091.68</v>
+        <v>11566669000000</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1907,7 +1907,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>18386542667738.73</v>
+        <v>11772234000000</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1915,7 +1915,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>18490774809322.48</v>
+        <v>11923447000000</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1923,7 +1923,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>18634070825934.38</v>
+        <v>12112815000000</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1931,7 +1931,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>18810875089733.51</v>
+        <v>12305307000000</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1939,7 +1939,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>19002771259660.31</v>
+        <v>12527214000000</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1947,7 +1947,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>19213358003492.85</v>
+        <v>12767286000000</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1955,7 +1955,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>19308191624596.81</v>
+        <v>12922656000000</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1963,7 +1963,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>19459447054144.73</v>
+        <v>13142642000000</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1971,7 +1971,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>19567477834193.57</v>
+        <v>13324204000000</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1979,7 +1979,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>19830771821940.75</v>
+        <v>13599160000000</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1987,7 +1987,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>19882141983578.98</v>
+        <v>13753424000000</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1995,7 +1995,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>19911834977772.12</v>
+        <v>13870188000000</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2003,7 +2003,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>20083179009387.61</v>
+        <v>14039560000000</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2011,7 +2011,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>20143546127670.93</v>
+        <v>14215651000000</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2019,7 +2019,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>20266804873799.68</v>
+        <v>14402082000000</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2027,7 +2027,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>20383409068388.84</v>
+        <v>14564117000000</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2035,7 +2035,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>20511564629643.31</v>
+        <v>14715058000000</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2043,7 +2043,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>20424090601540.09</v>
+        <v>14706538000000</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2051,7 +2051,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>20545599890096.93</v>
+        <v>14865701000000</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2059,7 +2059,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>20437646039535.37</v>
+        <v>14898999000000</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2067,7 +2067,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>19990362123075.27</v>
+        <v>14608209000000</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2075,7 +2075,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>19763342263943.14</v>
+        <v>14430902000000</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2083,7 +2083,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>19728077720299.66</v>
+        <v>14381236000000</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2091,7 +2091,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>19797358019694.48</v>
+        <v>14448882000000</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2099,7 +2099,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>20011321481449.11</v>
+        <v>14651249000000</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2107,7 +2107,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>20108398913777.3</v>
+        <v>14764610000000</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2115,7 +2115,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>20302815712171.04</v>
+        <v>14980193000000</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2123,7 +2123,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>20459383313698.11</v>
+        <v>15141607000000</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2131,7 +2131,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>20566806264238.4</v>
+        <v>15309474000000</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2139,7 +2139,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>20518174714957.93</v>
+        <v>15351448000000</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2147,7 +2147,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>20657016968254.6</v>
+        <v>15557539000000</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2155,7 +2155,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>20652327558843.11</v>
+        <v>15647680000000</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2163,7 +2163,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>20884362216084.36</v>
+        <v>15842259000000</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2171,7 +2171,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>21059381387417.11</v>
+        <v>16068805000000</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2179,7 +2179,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>21153314039190.58</v>
+        <v>16207115000000</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2187,7 +2187,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>21183765769498.57</v>
+        <v>16319541000000</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2195,7 +2195,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>21208462761498.71</v>
+        <v>16420419000000</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2203,7 +2203,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>21417557875507.36</v>
+        <v>16648189000000</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2211,7 +2211,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>21474866593126.92</v>
+        <v>16728687000000</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2219,7 +2219,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>21657741311303.56</v>
+        <v>16953838000000</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2227,7 +2227,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>21846470767034.94</v>
+        <v>17192019000000</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2235,7 +2235,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>21771148800688.67</v>
+        <v>17197738000000</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2243,7 +2243,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>22052441445907.38</v>
+        <v>17518508000000</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2251,7 +2251,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>22320354413203.09</v>
+        <v>17804228000000</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2259,7 +2259,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>22433296867280.06</v>
+        <v>17912079000000</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2267,7 +2267,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>22635365874441.62</v>
+        <v>18063529000000</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2275,7 +2275,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>22775493279654.96</v>
+        <v>18279784000000</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2283,7 +2283,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>22866684593888.77</v>
+        <v>18401626000000</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2291,7 +2291,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>22908796576990.19</v>
+        <v>18435137000000</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2299,7 +2299,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>23041695096800.1</v>
+        <v>18525933000000</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2307,7 +2307,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>23115555032314.98</v>
+        <v>18711702000000</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2315,7 +2315,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>23279548945037.88</v>
+        <v>18892639000000</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2323,7 +2323,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>23408744069602.14</v>
+        <v>19089379000000</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2331,7 +2331,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>23522710663379.03</v>
+        <v>19280084000000</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2339,7 +2339,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>23654283360860.94</v>
+        <v>19438643000000</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2347,7 +2347,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>23840815909474.46</v>
+        <v>19692595000000</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2355,7 +2355,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>24109599590125.37</v>
+        <v>20037088000000</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2363,7 +2363,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>24305708182806.76</v>
+        <v>20328553000000</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2371,7 +2371,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>24434696063303.24</v>
+        <v>20580912000000</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2379,7 +2379,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>24587138415482.05</v>
+        <v>20798730000000</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2387,7 +2387,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>24621879076354.68</v>
+        <v>20917867000000</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2395,7 +2395,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>24755581231671.55</v>
+        <v>21104133000000</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2403,7 +2403,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>24960912445629.05</v>
+        <v>21384775000000</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2411,7 +2411,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>25243691428217.69</v>
+        <v>21694282000000</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2419,7 +2419,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>25405398069586.02</v>
+        <v>21902390000000</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2427,7 +2427,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>25059296518380.16</v>
+        <v>21706513000000</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2435,7 +2435,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>23081878705152.19</v>
+        <v>19913143000000</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2443,7 +2443,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>24872695936921.02</v>
+        <v>21647640000000</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2451,7 +2451,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>25130211670197.91</v>
+        <v>22024502000000</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2459,7 +2459,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>25453439170720.23</v>
+        <v>22600185000000</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2467,7 +2467,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>25840126079040.36</v>
+        <v>23292362000000</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2475,7 +2475,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>26050533873111.71</v>
+        <v>23828973000000</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2483,7 +2483,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>26492644103016.4</v>
+        <v>24654603000000</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2491,7 +2491,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>26360842013778.27</v>
+        <v>25029116000000</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2499,7 +2499,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>26323598940801.8</v>
+        <v>25544273000000</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2507,7 +2507,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>26496998239319.07</v>
+        <v>25994639000000</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2515,7 +2515,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>26665247328795.69</v>
+        <v>26408405000000</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2531,7 +2531,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>26950772811549.02</v>
+        <v>27063012000000</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2539,7 +2539,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>27272540314228.39</v>
+        <v>27610128000000</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2547,7 +2547,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>27501144528524.09</v>
+        <v>27956998000000</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2555,7 +2555,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>27586629471745.35</v>
+        <v>28255928000000</v>
       </c>
     </row>
   </sheetData>
